--- a/data/health/indicator_4_hiv_plwha.xlsx
+++ b/data/health/indicator_4_hiv_plwha.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H30"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1145,38 +1145,38 @@
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1885</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1885</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6">
         <v>0</v>
       </c>
@@ -1307,21 +1307,21 @@
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
+      <c r="D13" s="7">
+        <v>600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1329,21 +1329,21 @@
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1351,65 +1351,65 @@
     </row>
     <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1417,21 +1417,21 @@
     </row>
     <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <v>600</v>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1439,21 +1439,21 @@
     </row>
     <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>41</v>
+      <c r="D19" s="7">
+        <v>600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1461,79 +1461,79 @@
     </row>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="H21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1541,21 +1541,21 @@
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1563,101 +1563,101 @@
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="H25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
       <c r="H27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7">
-        <v>600</v>
+      <c r="D29" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1665,21 +1665,21 @@
     </row>
     <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="H30">
         <v>0</v>
